--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/180.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/180.xlsx
@@ -479,13 +479,13 @@
         <v>-4.289543352511232</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.6723894009274</v>
+        <v>-14.74752612693606</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09024795732710987</v>
+        <v>-0.02737871908114129</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.14013846344107</v>
+        <v>-11.2403338570888</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.462473082068619</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.82902571212581</v>
+        <v>-14.89677837933174</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02414492027923495</v>
+        <v>0.04728668402522248</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.84869070988141</v>
+        <v>-10.94218284447417</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.636472354094552</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.18846179434255</v>
+        <v>-15.26262968994093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01531528048572742</v>
+        <v>0.08101245614550882</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.48094101536016</v>
+        <v>-10.58266820844037</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.7689207378814</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.6957754371566</v>
+        <v>-15.77722265313498</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1397314343906502</v>
+        <v>0.2150907295476255</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.29306646958139</v>
+        <v>-10.39916649181074</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.843800241320171</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.17871121207935</v>
+        <v>-16.26585357979388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1322819140737081</v>
+        <v>0.2040670105548922</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.13298688273561</v>
+        <v>-10.24353828793114</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.846238920921353</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.74497949458968</v>
+        <v>-16.84576404186529</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2600104205975876</v>
+        <v>0.3535942013102455</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.985659198857665</v>
+        <v>-10.09528105055144</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.765065543320581</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.32711564814419</v>
+        <v>-17.43952616034325</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4130463485145237</v>
+        <v>0.496954917427146</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.780371890299401</v>
+        <v>-9.889561695999395</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.605305490692093</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.04916924216823</v>
+        <v>-18.17650497960685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6870682469918502</v>
+        <v>0.7819743502915225</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.816506646142564</v>
+        <v>-9.927568651148926</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.374151685420892</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.52904141822601</v>
+        <v>-18.66503116784302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7329698607549419</v>
+        <v>0.8161059837999024</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.471851773834125</v>
+        <v>-9.578357657451567</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.091512031601889</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.12958534957599</v>
+        <v>-19.27617986449479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8584988604014114</v>
+        <v>0.941582614235005</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.423187684171429</v>
+        <v>-9.533909289303907</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.785221295962464</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.67527253201913</v>
+        <v>-19.82548052252225</v>
       </c>
       <c r="F12" t="n">
-        <v>1.013197510779247</v>
+        <v>1.107147875971473</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.931205127985047</v>
+        <v>-9.043393071035798</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.478460875420284</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.48552897028787</v>
+        <v>-20.64305555807952</v>
       </c>
       <c r="F13" t="n">
-        <v>1.195599473970174</v>
+        <v>1.29644948275999</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.434627173501219</v>
+        <v>-8.5608500651983</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.201972667795803</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.31712586218863</v>
+        <v>-21.47562128039056</v>
       </c>
       <c r="F14" t="n">
-        <v>1.512446295042787</v>
+        <v>1.62480443803048</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.972534344702498</v>
+        <v>-8.115973614636449</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.968194993255746</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.13927011143766</v>
+        <v>-22.30173249740064</v>
       </c>
       <c r="F15" t="n">
-        <v>1.623861792225876</v>
+        <v>1.740802241208173</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.5268592636673</v>
+        <v>-7.68538086647492</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.786185375538305</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.99813827015773</v>
+        <v>-23.15618855006305</v>
       </c>
       <c r="F16" t="n">
-        <v>1.900580705088598</v>
+        <v>2.02218201388255</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.952172630429735</v>
+        <v>-7.099277745159369</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.655170197459633</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.61254695021709</v>
+        <v>-23.76683973920683</v>
       </c>
       <c r="F17" t="n">
-        <v>2.090445280899309</v>
+        <v>2.213931881302469</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.86399597079071</v>
+        <v>-7.016102345205883</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.564704282485913</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.4233270805995</v>
+        <v>-24.58209743716112</v>
       </c>
       <c r="F18" t="n">
-        <v>2.501910174609076</v>
+        <v>2.638672370093746</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.463083473171374</v>
+        <v>-6.614770893895613</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.511359484054391</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.27107987420695</v>
+        <v>-25.43712955114856</v>
       </c>
       <c r="F19" t="n">
-        <v>2.766400876617626</v>
+        <v>2.905153102134239</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.16245801531966</v>
+        <v>-6.307036315600842</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.479764675569762</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.02414913366303</v>
+        <v>-26.19042137975296</v>
       </c>
       <c r="F20" t="n">
-        <v>2.988315409784883</v>
+        <v>3.126753420033294</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.043619182425313</v>
+        <v>-6.205806630028615</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.462925549910052</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.6079349173756</v>
+        <v>-26.77488796321329</v>
       </c>
       <c r="F21" t="n">
-        <v>3.30784615294005</v>
+        <v>3.440942503629036</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.717110241855506</v>
+        <v>-5.86853581652291</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.451950722461357</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.19382856184568</v>
+        <v>-27.3621693917846</v>
       </c>
       <c r="F22" t="n">
-        <v>3.518239459606587</v>
+        <v>3.639552737738021</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.563956483212995</v>
+        <v>-5.735465650439607</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.439677971474927</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.64373245669876</v>
+        <v>-27.80447975098947</v>
       </c>
       <c r="F23" t="n">
-        <v>3.701584068602119</v>
+        <v>3.820907316701611</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.367454109861528</v>
+        <v>-5.532417125667277</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.432544186044174</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.87246807964655</v>
+        <v>-28.03519231166637</v>
       </c>
       <c r="F24" t="n">
-        <v>3.83698466459125</v>
+        <v>3.957643327580598</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.204206185728045</v>
+        <v>-5.371552000650989</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.431827378216006</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.14165891837528</v>
+        <v>-28.2991462292584</v>
       </c>
       <c r="F25" t="n">
-        <v>4.151802178723395</v>
+        <v>4.273639148968498</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.912758432168382</v>
+        <v>-5.074540018383591</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.452658365609532</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.10197614846201</v>
+        <v>-28.25832442899791</v>
       </c>
       <c r="F26" t="n">
-        <v>4.308281382287706</v>
+        <v>4.44158720982216</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.914355693115072</v>
+        <v>-5.082329938574418</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.505243319170353</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.99587612623266</v>
+        <v>-28.14690893181481</v>
       </c>
       <c r="F27" t="n">
-        <v>4.264212690922455</v>
+        <v>4.389296552272306</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.73639202058749</v>
+        <v>-4.886377441942304</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.597280121713254</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.94281302281515</v>
+        <v>-28.09879471887147</v>
       </c>
       <c r="F28" t="n">
-        <v>4.248161527638499</v>
+        <v>4.361409947219429</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.656398050224544</v>
+        <v>-4.794692045141696</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.738102077410924</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.73308742359354</v>
+        <v>-27.87932844633562</v>
       </c>
       <c r="F29" t="n">
-        <v>4.237635316153751</v>
+        <v>4.347663029235617</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.539221939791095</v>
+        <v>-4.67108761401296</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.921256369006413</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.58900663082034</v>
+        <v>-27.73101883974455</v>
       </c>
       <c r="F30" t="n">
-        <v>4.144208643075194</v>
+        <v>4.244390944420082</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.49313703378822</v>
+        <v>-4.624164800628214</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.146723725664902</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.14659153319273</v>
+        <v>-27.28289549807795</v>
       </c>
       <c r="F31" t="n">
-        <v>4.001214511437862</v>
+        <v>4.095819491772175</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.589640398034582</v>
+        <v>-4.707012893010657</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.402472507922178</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.77279319475861</v>
+        <v>-26.90287831579401</v>
       </c>
       <c r="F32" t="n">
-        <v>3.917371404039448</v>
+        <v>4.006634724814337</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.670288983539615</v>
+        <v>-4.786286786717308</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.6753045882445</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.35314561177277</v>
+        <v>-26.48313908668826</v>
       </c>
       <c r="F33" t="n">
-        <v>3.784851114675497</v>
+        <v>3.872307697658227</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.618875510280157</v>
+        <v>-4.704918124555981</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.955969198143582</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.86846856057207</v>
+        <v>-25.99418085245832</v>
       </c>
       <c r="F34" t="n">
-        <v>3.658091438561905</v>
+        <v>3.738687654855571</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.444865713210776</v>
+        <v>-4.517043578777211</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.226531551040335</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.46447937178493</v>
+        <v>-25.58296471250255</v>
       </c>
       <c r="F35" t="n">
-        <v>3.417978604444649</v>
+        <v>3.500617219981624</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.456360755105811</v>
+        <v>-4.515642702373147</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.484425768107045</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.77514344256237</v>
+        <v>-24.89440122914765</v>
       </c>
       <c r="F36" t="n">
-        <v>3.206459359733723</v>
+        <v>3.27561290334372</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.728589008093821</v>
+        <v>-4.781350988545977</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.721363446321794</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.29929060347699</v>
+        <v>-24.4117796694931</v>
       </c>
       <c r="F37" t="n">
-        <v>3.074567500906174</v>
+        <v>3.147151227860704</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.7275154392608</v>
+        <v>-4.768651454789503</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.936455288337258</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.88668667942</v>
+        <v>-23.99344131679143</v>
       </c>
       <c r="F38" t="n">
-        <v>3.002586019882365</v>
+        <v>3.073022609170851</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.869252709825326</v>
+        <v>-4.915586369582194</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.13552607177768</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.38845909477811</v>
+        <v>-23.49200611795332</v>
       </c>
       <c r="F39" t="n">
-        <v>2.97365203060215</v>
+        <v>3.045738250048693</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.744181940778317</v>
+        <v>-4.781861588356804</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.316497258947435</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.00683155924463</v>
+        <v>-23.10705313749805</v>
       </c>
       <c r="F40" t="n">
-        <v>3.056761969041427</v>
+        <v>3.143694859910488</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.73449363667544</v>
+        <v>-4.762759918510726</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.492915332161905</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.47735264771955</v>
+        <v>-22.57549254982113</v>
       </c>
       <c r="F41" t="n">
-        <v>3.077919130433656</v>
+        <v>3.155451747862358</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.662721632497098</v>
+        <v>-4.690529683732923</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.665620115812843</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.80487960455713</v>
+        <v>-21.894889186594</v>
       </c>
       <c r="F42" t="n">
-        <v>3.17495927909653</v>
+        <v>3.248276175010196</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.689141899631701</v>
+        <v>-4.719201826956303</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.841185244851271</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.14255309609705</v>
+        <v>-21.23097850949007</v>
       </c>
       <c r="F43" t="n">
-        <v>3.292737635460698</v>
+        <v>3.367101915601701</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.729426915475692</v>
+        <v>-4.766360301792201</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.02597734734884</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.8555960024121</v>
+        <v>-20.9390594330281</v>
       </c>
       <c r="F44" t="n">
-        <v>3.202374561247104</v>
+        <v>3.270716382080914</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.782922064886985</v>
+        <v>-4.815377883631624</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.213933847664826</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.3724245660382</v>
+        <v>-20.44921092220492</v>
       </c>
       <c r="F45" t="n">
-        <v>3.326044453890049</v>
+        <v>3.401272826018606</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.733184406391267</v>
+        <v>-4.760704426964575</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.414455711979304</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.04299604193469</v>
+        <v>-20.12322567374878</v>
       </c>
       <c r="F46" t="n">
-        <v>3.35503081238163</v>
+        <v>3.42845244671803</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.716871397050476</v>
+        <v>-4.726625162667562</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.618979896373354</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.5036324417641</v>
+        <v>-19.57526043061118</v>
       </c>
       <c r="F47" t="n">
-        <v>3.364404901216306</v>
+        <v>3.43437016760249</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.989767357483415</v>
+        <v>-4.9937474175473</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.829398732816214</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.02986127883056</v>
+        <v>-19.09885771480645</v>
       </c>
       <c r="F48" t="n">
-        <v>3.29632492643933</v>
+        <v>3.361262748534292</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.105817529872475</v>
+        <v>-5.108265790503878</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.044917426127193</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.6376027933896</v>
+        <v>-18.71818591738043</v>
       </c>
       <c r="F49" t="n">
-        <v>3.316015749913286</v>
+        <v>3.379591972512708</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.391871254661347</v>
+        <v>-5.399281498069764</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.254931105808028</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.12480347568488</v>
+        <v>-18.20160292415444</v>
       </c>
       <c r="F50" t="n">
-        <v>3.451599638142202</v>
+        <v>3.527613548441263</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.31892094322725</v>
+        <v>-5.301966411047214</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.46659325844751</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.45837907643534</v>
+        <v>-17.53868726206649</v>
       </c>
       <c r="F51" t="n">
-        <v>3.466210648113568</v>
+        <v>3.547723325606154</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.532050541187709</v>
+        <v>-5.514533039985479</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.667346903231433</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.0671941598274</v>
+        <v>-17.14522428476409</v>
       </c>
       <c r="F52" t="n">
-        <v>3.29836732568264</v>
+        <v>3.372600682795226</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814346775061006</v>
+        <v>-5.817384189320286</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.861054403133158</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.67507968971771</v>
+        <v>-16.75778376676889</v>
       </c>
       <c r="F53" t="n">
-        <v>3.335104327456523</v>
+        <v>3.404598270940405</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846291993994818</v>
+        <v>-5.84532316358453</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.045417207693651</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.47335348753239</v>
+        <v>-16.56704200666778</v>
       </c>
       <c r="F54" t="n">
-        <v>3.071451532829844</v>
+        <v>3.137855692843078</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.026743204062328</v>
+        <v>-6.017761884312904</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.212077335867638</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.18021682690615</v>
+        <v>-16.28047768206808</v>
       </c>
       <c r="F55" t="n">
-        <v>2.923246664661504</v>
+        <v>2.991614670100998</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.173691211157862</v>
+        <v>-6.154733556643042</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.369274108712469</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.84621908911087</v>
+        <v>-15.95728109411723</v>
       </c>
       <c r="F56" t="n">
-        <v>2.869463484587694</v>
+        <v>2.938014782266972</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.477000591092129</v>
+        <v>-6.473871530712956</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.503712105463999</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.29995584534269</v>
+        <v>-15.41012757375582</v>
       </c>
       <c r="F57" t="n">
-        <v>2.901146857464671</v>
+        <v>2.980957535587833</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.735062972405392</v>
+        <v>-6.730611589439205</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.623390078587585</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.09504821356684</v>
+        <v>-15.21192320103493</v>
       </c>
       <c r="F58" t="n">
-        <v>2.741734978063814</v>
+        <v>2.824347408995106</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709768643315177</v>
+        <v>-6.707988090128702</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.725972734170899</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.74870443419182</v>
+        <v>-14.86995225080904</v>
       </c>
       <c r="F59" t="n">
-        <v>2.863179179223665</v>
+        <v>2.956370190851072</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.821406709646575</v>
+        <v>-6.815829388636</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.807438793511535</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.68972360988984</v>
+        <v>-14.8189839158462</v>
       </c>
       <c r="F60" t="n">
-        <v>2.682138815528277</v>
+        <v>2.775251273338633</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823527662706935</v>
+        <v>-6.823841877975136</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.879587069728013</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.34646961398547</v>
+        <v>-14.47351732076158</v>
       </c>
       <c r="F61" t="n">
-        <v>2.567685904085908</v>
+        <v>2.661871930729285</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.226325451935478</v>
+        <v>-7.237519370865154</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.931734414271316</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.13437430794951</v>
+        <v>-14.27472379441281</v>
       </c>
       <c r="F62" t="n">
-        <v>2.519558598839723</v>
+        <v>2.618379300689071</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177779192998359</v>
+        <v>-7.17551422460674</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.97934451964972</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.81494830321707</v>
+        <v>-13.95647609693613</v>
       </c>
       <c r="F63" t="n">
-        <v>2.447367640970445</v>
+        <v>2.545612281494758</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.374216104835616</v>
+        <v>-7.383315255310616</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.022267002128196</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.62432437384154</v>
+        <v>-13.77378610308268</v>
       </c>
       <c r="F64" t="n">
-        <v>2.357344966630737</v>
+        <v>2.459412559584834</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.400557818153169</v>
+        <v>-7.386077731210221</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.062364303257072</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.43339932150065</v>
+        <v>-13.58600320342381</v>
       </c>
       <c r="F65" t="n">
-        <v>2.124380529865063</v>
+        <v>2.20309145454952</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741154076580673</v>
+        <v>-7.742764429830205</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.11379779853867</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.2166955248644</v>
+        <v>-13.37219280571558</v>
       </c>
       <c r="F66" t="n">
-        <v>2.057740708400678</v>
+        <v>2.136818217564703</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.789569412489376</v>
+        <v>-7.780313154380276</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.166556862781148</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.04633848028786</v>
+        <v>-13.20336756057152</v>
       </c>
       <c r="F67" t="n">
-        <v>2.320058088137501</v>
+        <v>2.430818970178504</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.86119740133646</v>
+        <v>-7.867939937299949</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.237395821417763</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.99420493037211</v>
+        <v>-13.15696843930045</v>
       </c>
       <c r="F68" t="n">
-        <v>2.038206992560822</v>
+        <v>2.127522682547077</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.767665989835169</v>
+        <v>-7.758488285543119</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.321264241080499</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.85343649021787</v>
+        <v>-13.0173913987048</v>
       </c>
       <c r="F69" t="n">
-        <v>2.087407866640029</v>
+        <v>2.200761024643693</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.840000963035705</v>
+        <v>-7.83078398183513</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.418218965151553</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.82632233103265</v>
+        <v>-13.00122240469527</v>
       </c>
       <c r="F70" t="n">
-        <v>2.088769466135568</v>
+        <v>2.195262257450168</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.750803103775025</v>
+        <v>-7.736990724277004</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.534464079315354</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.52258090510461</v>
+        <v>-12.69207385769359</v>
       </c>
       <c r="F71" t="n">
-        <v>2.043260621457728</v>
+        <v>2.152162396495206</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.4678391624568</v>
+        <v>-7.433314759863168</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.653082903847098</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.4553388377095</v>
+        <v>-12.62318216014043</v>
       </c>
       <c r="F72" t="n">
-        <v>2.054467632690246</v>
+        <v>2.157294579209163</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.529228970481653</v>
+        <v>-7.503437133883453</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.783475579833251</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.15595714862775</v>
+        <v>-12.28316196303796</v>
       </c>
       <c r="F73" t="n">
-        <v>2.030403980067153</v>
+        <v>2.133623695671322</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.271572450556484</v>
+        <v>-7.224728190988788</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.910256825839612</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.35746078166476</v>
+        <v>-12.48555587266821</v>
       </c>
       <c r="F74" t="n">
-        <v>2.055567386128951</v>
+        <v>2.155514026022688</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.217252486066163</v>
+        <v>-7.179324084733683</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.02795050878028</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.49002034793724</v>
+        <v>-12.61870459256856</v>
       </c>
       <c r="F75" t="n">
-        <v>1.987539780563342</v>
+        <v>2.087512605062763</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.141945560120554</v>
+        <v>-7.112199848064153</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.13335788740839</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.75308398893604</v>
+        <v>-12.87067905306042</v>
       </c>
       <c r="F76" t="n">
-        <v>1.970467417657731</v>
+        <v>2.064025013764706</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.803705916204561</v>
+        <v>-6.75272448893888</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.20485631969947</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.33075566722152</v>
+        <v>-13.44316617942058</v>
       </c>
       <c r="F77" t="n">
-        <v>1.962297820684495</v>
+        <v>2.058552431176865</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.740326078147765</v>
+        <v>-6.705395814166041</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.24716318672662</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.82505556101088</v>
+        <v>-13.93218987516473</v>
       </c>
       <c r="F78" t="n">
-        <v>2.011551063975068</v>
+        <v>2.110974011755136</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.747369737076614</v>
+        <v>-6.733871572846795</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.24179088788108</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.31398761063515</v>
+        <v>-14.42014000207586</v>
       </c>
       <c r="F79" t="n">
-        <v>2.057374123921109</v>
+        <v>2.154728487852184</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646375712955539</v>
+        <v>-6.643927452324136</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.18616192516587</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.86293477648588</v>
+        <v>-14.96772556843105</v>
       </c>
       <c r="F80" t="n">
-        <v>1.952242932102049</v>
+        <v>2.035902747260678</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.299482056861165</v>
+        <v>-6.28510670834095</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.07920966248097</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.63570795171876</v>
+        <v>-15.73877055968883</v>
       </c>
       <c r="F81" t="n">
-        <v>2.048890311679671</v>
+        <v>2.13762994034089</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.238052971927787</v>
+        <v>-6.231742481958075</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.909636566401085</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.36620608107571</v>
+        <v>-16.46573376727851</v>
       </c>
       <c r="F82" t="n">
-        <v>2.02385782864629</v>
+        <v>2.103904168220604</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.138276531970992</v>
+        <v>-6.129779627426712</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.692868146917828</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.24234298724402</v>
+        <v>-17.34298351918836</v>
       </c>
       <c r="F83" t="n">
-        <v>2.003486205424565</v>
+        <v>2.087015097554777</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.845008948316329</v>
+        <v>-5.831550060995034</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.423355289430299</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.29705890417347</v>
+        <v>-18.39531663700062</v>
       </c>
       <c r="F84" t="n">
-        <v>2.019825399371039</v>
+        <v>2.093247033707438</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729430098829571</v>
+        <v>-5.726746176747016</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.115698955183907</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.09699860780293</v>
+        <v>-19.19346269514077</v>
       </c>
       <c r="F85" t="n">
-        <v>2.044281821079383</v>
+        <v>2.122626161284272</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.588072505047454</v>
+        <v>-5.595233994701879</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.782042222158584</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.24201213743176</v>
+        <v>-20.34703859082809</v>
       </c>
       <c r="F86" t="n">
-        <v>2.032446379310463</v>
+        <v>2.109664781470963</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252124014128763</v>
+        <v>-5.253511798229987</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.428043270048338</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.30760775802269</v>
+        <v>-21.41355067261794</v>
       </c>
       <c r="F87" t="n">
-        <v>1.86654071770011</v>
+        <v>1.915636853356583</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.896052653742339</v>
+        <v>-4.884937288629714</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.081928706696646</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.650694737344</v>
+        <v>-22.75378352991975</v>
       </c>
       <c r="F88" t="n">
-        <v>1.958448683649027</v>
+        <v>2.013488724795643</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661778986692493</v>
+        <v>-4.662053925052169</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.747576704235072</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.03601748563272</v>
+        <v>-24.12698280577704</v>
       </c>
       <c r="F89" t="n">
-        <v>1.82103187302227</v>
+        <v>1.8863362795968</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.279457559108408</v>
+        <v>-4.273382730589848</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.450225632869088</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.50612598712446</v>
+        <v>-25.59432883136917</v>
       </c>
       <c r="F90" t="n">
-        <v>1.610141058847747</v>
+        <v>1.666202299616018</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.161718479652766</v>
+        <v>-4.166889939275248</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.20280857846248</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.15003480884011</v>
+        <v>-27.23673203825802</v>
       </c>
       <c r="F91" t="n">
-        <v>1.407288918618043</v>
+        <v>1.457746653770055</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063591669854029</v>
+        <v>-4.05995200966403</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.010791696833405</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.74920723174558</v>
+        <v>-28.82076975907846</v>
       </c>
       <c r="F92" t="n">
-        <v>1.28643387108607</v>
+        <v>1.331510669770132</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.794976892450336</v>
+        <v>-3.787972510430012</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.894113767568391</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60039339205144</v>
+        <v>-30.66569779862597</v>
       </c>
       <c r="F93" t="n">
-        <v>1.148427906831435</v>
+        <v>1.191279014032405</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.788286725698213</v>
+        <v>-3.774068484812099</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.842274270510468</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.68110071347559</v>
+        <v>-32.73739761569502</v>
       </c>
       <c r="F94" t="n">
-        <v>1.035834102392591</v>
+        <v>1.075516872305863</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.784476865571271</v>
+        <v>-3.764118334652387</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.865113242589204</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.71483285230364</v>
+        <v>-34.76247574234468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6312819445832555</v>
+        <v>0.6719466372096566</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.770690670678933</v>
+        <v>-3.747713679191704</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.956412774320413</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.68763341370629</v>
+        <v>-36.72849449087532</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4049291207526535</v>
+        <v>0.4536193950210327</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.982118269269968</v>
+        <v>-3.96431273740522</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.101774143045573</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.778303977593</v>
+        <v>-38.81271054946106</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02561892282216583</v>
+        <v>0.06655855380824326</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.983100191983097</v>
+        <v>-3.952634403270401</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.312181790735544</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00660082895194</v>
+        <v>-41.02368628416039</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1864632909109547</v>
+        <v>-0.1379563088823597</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.183569533095607</v>
+        <v>-4.15218728318399</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.556386194432788</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38767176217097</v>
+        <v>-43.39836817359267</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1070453818730444</v>
+        <v>-0.05911446116948528</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.512068503697356</v>
+        <v>-4.482021668675594</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.860294627968492</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79641982359742</v>
+        <v>-45.79593540839227</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3700566536604794</v>
+        <v>-0.3396956033705166</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.698175588592492</v>
+        <v>-4.659448556786666</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.182981700298422</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19527010407552</v>
+        <v>-48.19415725833397</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3102641065823165</v>
+        <v>-0.2671118764159873</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.979084038364566</v>
+        <v>-4.928992887692123</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.571209936789307</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41484748174187</v>
+        <v>-50.40303822457863</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4558897910908355</v>
+        <v>-0.4159451751207293</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.335600537047609</v>
+        <v>-5.291073615082898</v>
       </c>
     </row>
   </sheetData>
